--- a/DSU.xlsx
+++ b/DSU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\DSA-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E638B-F22B-429F-901C-BA60B82B4743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F6E25-6819-40BA-8DA0-523DBCF86783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="820" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,2389 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DSU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">`cycle detected: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DSU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,13 +2420,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,8 +2501,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,14 +3473,601 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047BD424-E2D3-4AF9-B71D-727AF5D98836}">
-  <dimension ref="A1"/>
+  <dimension ref="B29:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
